--- a/static/测试数据_3.xlsx
+++ b/static/测试数据_3.xlsx
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t>Index</t>
   </si>
@@ -222,58 +222,21 @@
     <t>UE1</t>
   </si>
   <si>
-    <t>Call attempt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Call connected</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.263s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.082s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.097s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.890s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.968s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.896s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.881s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.192s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2.809s</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.123s</t>
-  </si>
-  <si>
-    <t>Call attempt</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <t xml:space="preserve"> 5.255s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -281,7 +244,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,7 +253,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -299,7 +262,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -308,7 +271,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -317,7 +280,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -325,7 +288,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -333,7 +296,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -341,7 +304,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -349,7 +312,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -358,7 +321,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -367,7 +330,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -375,7 +338,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -384,7 +347,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -392,7 +355,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -401,7 +364,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -410,7 +373,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -418,14 +381,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -447,12 +410,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-      <charset val="222"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -460,7 +417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -901,28 +858,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="43"/>
@@ -1278,18 +1234,18 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="6" max="6" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="81">
+    <row r="1" spans="1:19" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1349,914 +1305,1197 @@
       </c>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="2">
+        <v>49</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="2">
-        <v>0.59033626157407404</v>
-      </c>
-      <c r="D2">
-        <v>121.48812</v>
-      </c>
-      <c r="E2">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I2">
-        <v>121.48812100000001</v>
-      </c>
+      <c r="C2" s="3">
+        <v>0.54603009259259261</v>
+      </c>
+      <c r="D2" s="2">
+        <v>121.52033</v>
+      </c>
+      <c r="E2" s="2">
+        <v>31.281880000000001</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2">
+        <v>31.281879</v>
+      </c>
+      <c r="I2" s="2">
+        <v>121.520332</v>
+      </c>
+      <c r="J2" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K2" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L2" s="2">
+        <v>17</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>-77</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="2">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2">
-        <v>0.59037520833333335</v>
-      </c>
-      <c r="D3">
-        <v>121.48812</v>
-      </c>
-      <c r="E3">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I3">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="P3">
-        <v>-54.332999999999998</v>
-      </c>
+      <c r="C3" s="3">
+        <v>0.54604166666666665</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121.52041</v>
+      </c>
+      <c r="E3" s="2">
+        <v>31.28173</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
+        <v>31.281731000000001</v>
+      </c>
+      <c r="I3" s="2">
+        <v>121.520409</v>
+      </c>
+      <c r="J3" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K3" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L3" s="2">
+        <v>17</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>-82</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2"/>
       <c r="Q3">
         <v>1.167</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="2">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="2">
-        <v>0.59059789351851855</v>
-      </c>
-      <c r="D4">
-        <v>121.48812</v>
-      </c>
-      <c r="E4">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C4" s="3">
+        <v>0.54605324074074069</v>
+      </c>
+      <c r="D4" s="2">
+        <v>121.52049</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31.281580000000002</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2">
+        <v>31.281580000000002</v>
+      </c>
+      <c r="I4" s="2">
+        <v>121.520493</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K4" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L4" s="2">
+        <v>17</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>-79</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="2">
+        <v>52</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.54605754629629633</v>
+      </c>
+      <c r="D5" s="2">
+        <v>121.52056</v>
+      </c>
+      <c r="E5" s="2">
+        <v>31.281410000000001</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H4">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I4">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="J4">
-        <v>6184</v>
-      </c>
-      <c r="K4">
-        <v>55666</v>
-      </c>
-      <c r="L4">
-        <v>36</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>-54.832999999999998</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.59063643518518516</v>
-      </c>
-      <c r="D5">
-        <v>121.48812</v>
-      </c>
-      <c r="E5">
-        <v>31.190570000000001</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5">
-        <v>31.190570999999998</v>
-      </c>
-      <c r="I5">
-        <v>121.48812100000001</v>
-      </c>
-      <c r="J5">
-        <v>6184</v>
-      </c>
-      <c r="K5">
-        <v>55666</v>
-      </c>
-      <c r="L5">
-        <v>36</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>-58.167000000000002</v>
-      </c>
+      <c r="H5" s="2">
+        <v>31.281412</v>
+      </c>
+      <c r="I5" s="2">
+        <v>121.520561</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K5" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L5" s="2">
+        <v>17</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>-80</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2"/>
       <c r="Q5">
         <v>1.167</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="2">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2">
-        <v>0.59087753472222226</v>
-      </c>
-      <c r="D6">
-        <v>121.48801</v>
-      </c>
-      <c r="E6">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I6">
-        <v>121.488007</v>
-      </c>
-      <c r="J6">
-        <v>6184</v>
-      </c>
-      <c r="K6">
-        <v>55666</v>
-      </c>
-      <c r="L6">
-        <v>36</v>
-      </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
-      <c r="P6">
-        <v>-60.167000000000002</v>
-      </c>
+      <c r="C6" s="3">
+        <v>0.54606481481481484</v>
+      </c>
+      <c r="D6" s="2">
+        <v>121.52056</v>
+      </c>
+      <c r="E6" s="2">
+        <v>31.281410000000001</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2">
+        <v>31.281412</v>
+      </c>
+      <c r="I6" s="2">
+        <v>121.520561</v>
+      </c>
+      <c r="J6" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K6" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L6" s="2">
+        <v>17</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>-74</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
       <c r="Q6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="A7" s="2">
+        <v>54</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2">
-        <v>0.59091358796296289</v>
-      </c>
-      <c r="D7">
-        <v>121.48801</v>
-      </c>
-      <c r="E7">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I7">
-        <v>121.488007</v>
-      </c>
-      <c r="J7">
-        <v>6184</v>
-      </c>
-      <c r="K7">
-        <v>55666</v>
-      </c>
-      <c r="L7">
-        <v>36</v>
-      </c>
-      <c r="M7">
-        <v>3</v>
-      </c>
-      <c r="P7">
-        <v>-57.5</v>
-      </c>
+      <c r="C7" s="3">
+        <v>0.54607638888888888</v>
+      </c>
+      <c r="D7" s="2">
+        <v>121.52063</v>
+      </c>
+      <c r="E7" s="2">
+        <v>31.28125</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <v>31.281251999999999</v>
+      </c>
+      <c r="I7" s="2">
+        <v>121.52063</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K7" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L7" s="2">
+        <v>17</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>-75.5</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2"/>
       <c r="Q7">
         <v>1.167</v>
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2">
-        <v>0.59115054398148148</v>
-      </c>
-      <c r="D8">
-        <v>121.48801</v>
-      </c>
-      <c r="E8">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I8">
-        <v>121.488007</v>
-      </c>
-      <c r="J8">
-        <v>6184</v>
-      </c>
-      <c r="K8">
-        <v>55666</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="P8">
-        <v>-56.363999999999997</v>
-      </c>
+      <c r="C8" s="3">
+        <v>0.54608796296296302</v>
+      </c>
+      <c r="D8" s="2">
+        <v>121.52070999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>31.281089999999999</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <v>31.281089999999999</v>
+      </c>
+      <c r="I8" s="2">
+        <v>121.520706</v>
+      </c>
+      <c r="J8" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K8" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L8" s="2">
+        <v>17</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>-75.332999999999998</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2"/>
       <c r="Q8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>56</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="2">
-        <v>0.59118571759259264</v>
-      </c>
-      <c r="D9">
-        <v>121.48801</v>
-      </c>
-      <c r="E9">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <v>31.190670000000001</v>
-      </c>
-      <c r="I9">
-        <v>121.488007</v>
-      </c>
-      <c r="J9">
-        <v>6184</v>
-      </c>
-      <c r="K9">
-        <v>55666</v>
-      </c>
-      <c r="L9">
-        <v>36</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="P9">
-        <v>-55.4</v>
-      </c>
+      <c r="C9" s="3">
+        <v>0.54609953703703706</v>
+      </c>
+      <c r="D9" s="2">
+        <v>121.52078</v>
+      </c>
+      <c r="E9" s="2">
+        <v>31.280919999999998</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <v>31.280923999999999</v>
+      </c>
+      <c r="I9" s="2">
+        <v>121.520782</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K9" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L9" s="2">
+        <v>17</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>-71</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2"/>
       <c r="Q9">
         <v>1.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="A10" s="2">
+        <v>57</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.59140935185185184</v>
-      </c>
-      <c r="D10">
-        <v>121.48792</v>
-      </c>
-      <c r="E10">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I10">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J10">
-        <v>6184</v>
-      </c>
-      <c r="K10">
-        <v>55666</v>
-      </c>
-      <c r="L10">
-        <v>36</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="P10">
-        <v>-56.5</v>
-      </c>
+      <c r="C10" s="3">
+        <v>0.5461111111111111</v>
+      </c>
+      <c r="D10" s="2">
+        <v>121.52085</v>
+      </c>
+      <c r="E10" s="2">
+        <v>31.280750000000001</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <v>31.280750000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>121.52085099999999</v>
+      </c>
+      <c r="J10" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K10" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L10" s="2">
+        <v>17</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>-64.5</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2"/>
       <c r="Q10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="2">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2">
-        <v>0.59144565972222229</v>
-      </c>
-      <c r="D11">
-        <v>121.48792</v>
-      </c>
-      <c r="E11">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I11">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J11">
-        <v>6184</v>
-      </c>
-      <c r="K11">
-        <v>55666</v>
-      </c>
-      <c r="L11">
-        <v>36</v>
-      </c>
-      <c r="M11">
-        <v>3</v>
-      </c>
-      <c r="P11">
-        <v>-54.6</v>
-      </c>
+      <c r="C11" s="3">
+        <v>0.54612268518518514</v>
+      </c>
+      <c r="D11" s="2">
+        <v>121.52093000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>31.280570000000001</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2">
+        <v>31.280569</v>
+      </c>
+      <c r="I11" s="2">
+        <v>121.520927</v>
+      </c>
+      <c r="J11" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K11" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L11" s="2">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>-71.5</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2"/>
       <c r="Q11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="2">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="2">
-        <v>0.59167288194444445</v>
-      </c>
-      <c r="D12">
-        <v>121.48792</v>
-      </c>
-      <c r="E12">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I12">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J12">
-        <v>6184</v>
-      </c>
-      <c r="K12">
-        <v>55666</v>
-      </c>
-      <c r="L12">
-        <v>36</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>-55.768999999999998</v>
-      </c>
+      <c r="C12" s="3">
+        <v>0.54613425925925929</v>
+      </c>
+      <c r="D12" s="2">
+        <v>121.521</v>
+      </c>
+      <c r="E12" s="2">
+        <v>31.280380000000001</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2">
+        <v>31.280384000000002</v>
+      </c>
+      <c r="I12" s="2">
+        <v>121.521004</v>
+      </c>
+      <c r="J12" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K12" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L12" s="2">
+        <v>17</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>-72.5</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2"/>
       <c r="Q12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="A13" s="2">
+        <v>60</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="2">
-        <v>0.59170637731481479</v>
-      </c>
-      <c r="D13">
-        <v>121.48792</v>
-      </c>
-      <c r="E13">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I13">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J13">
-        <v>6184</v>
-      </c>
-      <c r="K13">
-        <v>55666</v>
-      </c>
-      <c r="L13">
-        <v>36</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>-55.6</v>
-      </c>
+      <c r="C13" s="3">
+        <v>0.54614583333333333</v>
+      </c>
+      <c r="D13" s="2">
+        <v>121.5211</v>
+      </c>
+      <c r="E13" s="2">
+        <v>31.280200000000001</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2">
+        <v>31.280201000000002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>121.521103</v>
+      </c>
+      <c r="J13" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K13" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L13" s="2">
+        <v>17</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-68.5</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2"/>
       <c r="Q13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="2">
+        <v>61</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="2">
-        <v>0.59193164351851857</v>
-      </c>
-      <c r="D14">
-        <v>121.48792</v>
-      </c>
-      <c r="E14">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I14">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J14">
-        <v>6184</v>
-      </c>
-      <c r="K14">
-        <v>55666</v>
-      </c>
-      <c r="L14">
-        <v>36</v>
-      </c>
-      <c r="M14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>-57.231000000000002</v>
-      </c>
+      <c r="C14" s="3">
+        <v>0.54615740740740748</v>
+      </c>
+      <c r="D14" s="2">
+        <v>121.52119</v>
+      </c>
+      <c r="E14" s="2">
+        <v>31.280010000000001</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2">
+        <v>31.280014000000001</v>
+      </c>
+      <c r="I14" s="2">
+        <v>121.52119399999999</v>
+      </c>
+      <c r="J14" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K14" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L14" s="2">
+        <v>17</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>-62</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2"/>
       <c r="Q14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="A15" s="2">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="2">
-        <v>0.59196675925925923</v>
-      </c>
-      <c r="D15">
-        <v>121.48792</v>
-      </c>
-      <c r="E15">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I15">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J15">
-        <v>6184</v>
-      </c>
-      <c r="K15">
-        <v>55666</v>
-      </c>
-      <c r="L15">
-        <v>36</v>
-      </c>
-      <c r="M15">
-        <v>3</v>
-      </c>
-      <c r="P15">
-        <v>-57</v>
-      </c>
+      <c r="C15" s="3">
+        <v>0.54616898148148152</v>
+      </c>
+      <c r="D15" s="2">
+        <v>121.52131</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31.27983</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2">
+        <v>31.279824999999999</v>
+      </c>
+      <c r="I15" s="2">
+        <v>121.521309</v>
+      </c>
+      <c r="J15" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K15" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L15" s="2">
+        <v>17</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>-57.5</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2"/>
       <c r="Q15">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="A16" s="2">
+        <v>63</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="2">
-        <v>0.59219628472222219</v>
-      </c>
-      <c r="D16">
-        <v>121.48792</v>
-      </c>
-      <c r="E16">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H16">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I16">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J16">
-        <v>6184</v>
-      </c>
-      <c r="K16">
-        <v>55666</v>
-      </c>
-      <c r="L16">
-        <v>36</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="P16">
-        <v>-56.832999999999998</v>
-      </c>
+      <c r="C16" s="3">
+        <v>0.54618055555555556</v>
+      </c>
+      <c r="D16" s="2">
+        <v>121.52142000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>31.279640000000001</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>31.279636</v>
+      </c>
+      <c r="I16" s="2">
+        <v>121.521423</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K16" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L16" s="2">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>-61</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2"/>
       <c r="Q16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="A17" s="2">
+        <v>64</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
-        <v>0.59223379629629636</v>
-      </c>
-      <c r="D17">
-        <v>121.48792</v>
-      </c>
-      <c r="E17">
-        <v>31.190650000000002</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>31.190650999999999</v>
-      </c>
-      <c r="I17">
-        <v>121.48792299999999</v>
-      </c>
-      <c r="J17">
-        <v>6184</v>
-      </c>
-      <c r="K17">
-        <v>55666</v>
-      </c>
-      <c r="L17">
-        <v>36</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="P17">
-        <v>-54.167000000000002</v>
-      </c>
+      <c r="C17" s="3">
+        <v>0.5461921296296296</v>
+      </c>
+      <c r="D17" s="2">
+        <v>121.52155</v>
+      </c>
+      <c r="E17" s="2">
+        <v>31.279440000000001</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>31.279444000000002</v>
+      </c>
+      <c r="I17" s="2">
+        <v>121.521553</v>
+      </c>
+      <c r="J17" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K17" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L17" s="2">
+        <v>17</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>-59</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2"/>
       <c r="Q17">
         <v>1.167</v>
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18">
+      <c r="A18" s="2">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.54620370370370364</v>
+      </c>
+      <c r="D18" s="2">
+        <v>121.5217</v>
+      </c>
+      <c r="E18" s="2">
+        <v>31.279250000000001</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2">
+        <v>31.279250999999999</v>
+      </c>
+      <c r="I18" s="2">
+        <v>121.521698</v>
+      </c>
+      <c r="J18" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K18" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>-61</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="2">
-        <v>0.59247508101851853</v>
-      </c>
-      <c r="D18">
-        <v>121.48802999999999</v>
-      </c>
-      <c r="E18">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="I18">
-        <v>121.488029</v>
-      </c>
-      <c r="J18">
-        <v>6184</v>
-      </c>
-      <c r="K18">
-        <v>55666</v>
-      </c>
-      <c r="L18">
-        <v>36</v>
-      </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="P18">
-        <v>-63.25</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.59251019675925931</v>
-      </c>
-      <c r="D19">
-        <v>121.48802999999999</v>
-      </c>
-      <c r="E19">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19">
-        <v>31.190550000000002</v>
-      </c>
-      <c r="I19">
-        <v>121.488029</v>
-      </c>
-      <c r="J19">
-        <v>6184</v>
-      </c>
-      <c r="K19">
-        <v>55666</v>
-      </c>
-      <c r="L19">
-        <v>36</v>
-      </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="P19">
-        <v>-57.167000000000002</v>
-      </c>
+      <c r="C19" s="3">
+        <v>0.54621527777777779</v>
+      </c>
+      <c r="D19" s="2">
+        <v>121.52185</v>
+      </c>
+      <c r="E19" s="2">
+        <v>31.279060000000001</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2">
+        <v>31.279057999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>121.521851</v>
+      </c>
+      <c r="J19" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K19" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L19" s="2">
+        <v>17</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>-62.5</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2"/>
       <c r="Q19">
         <v>2.3330000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20">
+      <c r="A20" s="2">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="3">
+        <v>0.54622685185185182</v>
+      </c>
+      <c r="D20" s="2">
+        <v>121.52202</v>
+      </c>
+      <c r="E20" s="2">
+        <v>31.278880000000001</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2">
+        <v>31.278874999999999</v>
+      </c>
+      <c r="I20" s="2">
+        <v>121.522018</v>
+      </c>
+      <c r="J20" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K20" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L20" s="2">
+        <v>17</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>-55</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.59275030092592595</v>
-      </c>
-      <c r="D20">
-        <v>121.48804</v>
-      </c>
-      <c r="E20">
-        <v>31.190639999999998</v>
-      </c>
-      <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20">
-        <v>31.190643000000001</v>
-      </c>
-      <c r="I20">
-        <v>121.48803700000001</v>
-      </c>
-      <c r="J20">
-        <v>6184</v>
-      </c>
-      <c r="K20">
-        <v>55666</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <v>-61.845999999999997</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.5927877777777778</v>
-      </c>
-      <c r="D21">
-        <v>121.48804</v>
-      </c>
-      <c r="E21">
-        <v>31.190639999999998</v>
-      </c>
-      <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21">
-        <v>31.190643000000001</v>
-      </c>
-      <c r="I21">
-        <v>121.48803700000001</v>
-      </c>
-      <c r="J21">
-        <v>6184</v>
-      </c>
-      <c r="K21">
-        <v>55666</v>
-      </c>
-      <c r="L21">
-        <v>36</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="P21">
-        <v>-66.167000000000002</v>
-      </c>
+      <c r="C21" s="3">
+        <v>0.54623842592592597</v>
+      </c>
+      <c r="D21" s="2">
+        <v>121.52218999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>31.278690000000001</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2">
+        <v>31.278691999999999</v>
+      </c>
+      <c r="I21" s="2">
+        <v>121.522186</v>
+      </c>
+      <c r="J21" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K21" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L21" s="2">
+        <v>17</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>-64.332999999999998</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
       <c r="Q21">
         <v>1.167</v>
       </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="2">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.54625000000000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>121.52238</v>
+      </c>
+      <c r="E22" s="2">
+        <v>31.278510000000001</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2">
+        <v>31.278511000000002</v>
+      </c>
+      <c r="I22" s="2">
+        <v>121.52237700000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K22" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L22" s="2">
+        <v>17</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>-75.5</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2">
+        <v>70</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.54626157407407405</v>
+      </c>
+      <c r="D23" s="2">
+        <v>121.52258</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31.27834</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2">
+        <v>31.278337000000001</v>
+      </c>
+      <c r="I23" s="2">
+        <v>121.522583</v>
+      </c>
+      <c r="J23" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K23" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L23" s="2">
+        <v>17</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>-76</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="2">
+        <v>71</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.54627314814814809</v>
+      </c>
+      <c r="D24" s="2">
+        <v>121.5228</v>
+      </c>
+      <c r="E24" s="2">
+        <v>31.278169999999999</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2">
+        <v>31.278172000000001</v>
+      </c>
+      <c r="I24" s="2">
+        <v>121.522797</v>
+      </c>
+      <c r="J24" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K24" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L24" s="2">
+        <v>17</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>-75.5</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="2">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.54628472222222224</v>
+      </c>
+      <c r="D25" s="2">
+        <v>121.523</v>
+      </c>
+      <c r="E25" s="2">
+        <v>31.277999999999999</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2">
+        <v>31.278002000000001</v>
+      </c>
+      <c r="I25" s="2">
+        <v>121.523003</v>
+      </c>
+      <c r="J25" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K25" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L25" s="2">
+        <v>17</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>-87.5</v>
+      </c>
+      <c r="O25" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="2">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.54629629629629628</v>
+      </c>
+      <c r="D26" s="2">
+        <v>121.52321000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>31.277830000000002</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2">
+        <v>31.277830000000002</v>
+      </c>
+      <c r="I26" s="2">
+        <v>121.52320899999999</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6305</v>
+      </c>
+      <c r="K26" s="2">
+        <v>58162</v>
+      </c>
+      <c r="L26" s="2">
+        <v>17</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>-86.5</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="2">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.54630787037037043</v>
+      </c>
+      <c r="D27" s="2">
+        <v>121.52341</v>
+      </c>
+      <c r="E27" s="2">
+        <v>31.277650000000001</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2">
+        <v>31.277654999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>121.523415</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
